--- a/TestResults/CountryPost.xlsx
+++ b/TestResults/CountryPost.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -47,22 +47,425 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>TC_34</t>
-  </si>
-  <si>
-    <t>Verify that the Country details are created successfully created when the Holiday-effectiveDate (considering as current date) is passed as empty/null in the JSON request</t>
+    <t>TC_01</t>
+  </si>
+  <si>
+    <t>Verify that the Country service is successfully created when valid values are passed for all attributes in JSON Request.</t>
   </si>
   <si>
     <t>Post</t>
   </si>
   <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation"
+	},
+	"country":
+	{
+		"countryNumberCd":"7865",
+		"countryCd":"PP",
+		"threeCharCountryCd":"KNY",
+		"independentFlag":"Y",
+		"postalFormatDescription":"xxxx-xxxx",
+		"postalFlag":"Y",
+		"postalLengthNumber":"9",
+		"firstWorkWeekDayName":"Monday",
+		"lastWorkWeekDayName":"Friday",
+		"weekendFirstDayName":"Saturday",
+		"internetDomainName":".us",
+		"dependentRelationshipId":"3519318133844723686",
+		"dependentCountryCd":"1613726817991424876",
+		"effectiveDate":"2021-08-19",
+		"expirationDate":"2021-09-30",
+		"countryDialings":
+		[
+			{
+				"intialDialingPrefixCd":"001",
+				"intialDialingCd":"1",
+				"landPhMaxLthNbr":"9",
+				"landPhMinLthNbr":"9",
+				"moblPhMaxLthNbr":"9",
+				"moblPhMinLthNbr":"9",
+				"effectiveDate":"2020-08-19",
+				"expirationDate":"9999-12-31"
+			}
+		],
+		"currencies":
+		[
+			{
+				"currencyNumberCd":"840",
+				"currencyCd":"Tes",
+				"minorUnitCd":"2",
+				"moneyFormatDescription":"#,
+				###.##",
+				"effectiveDate":"2021-08-30",
+				"expirationDate":"2021-10-30"
+			}
+		],
+		"geopoliticalUnitOfMeasures":
+		[
+			{
+				"uomTypeCd":"Test_UOMCD",
+				"effectiveDate":"2021-08-14",
+				"expirationDate":"2021-09-20"
+			}
+		],
+		"geopoliticalHolidays":
+		[
+			{
+				"holidayName":"TestHDName",
+				"effectiveDate":"2021-09-14",
+				"expirationDate":"2021-10-14"
+			}
+		],
+		"geopoliticalAffiliations":
+		[
+			{
+				"affilTypeCd":"Test",
+				"effectiveDate":"2021-05-14",
+				"expirationDate":"2021-05-20"
+			}
+		],
+		"locales":
+		[
+			{
+				"languageCd":"ZZZ",
+				"localeCd":"LC",
+				"scrptCd":"Test",
+				"cldrVersionNumber":"1",
+				"cldrVersionDate":"2019-06-30",
+				"dateFullFormatDescription":"EEEE dd MMMM y",
+				"dateLongFormatDescription":"dd MMMM y",
+				"dateMediumFormatDescription":"dd MMM y",
+				"dateShortFormatDescription":"y-MM-dd",
+				"effectiveDate":"2021-09-30",
+				"expirationDate":"2021-10-31"
+			}
+		],
+		"translationGeopoliticals":
+		[
+			{
+				"languageCd":"ZZZ",
+				"scrptCd":"Test",
+				"translationName":"Guam",
+				"versionNumber":"1",
+				"versionDate":"2020-07-30",
+				"effectiveDate":"2020-08-19",
+				"expirationDate":"9999-12-31"
+			}
+		],
+		"geopoliticalType":
+		{
+			"geopoliticalTypeName":"GeoTest"
+		}
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName:Automation
+Input_countryNumberCd:7865
+Input_countryCd:PP
+Input_threeCharCountryCd:KNY
+Input_independentFlag:Y
+Input_postalFormatDescription:xxxx-xxxx
+Input_postalFlag:Y
+Input_postalLengthNumber:9
+Input_firstWorkWeekDayName:Monday
+Input_lastWorkWeekDayName:Friday
+Input_weekendFirstDayName:Saturday
+Input_internetDomainName:.us
+Input_dependentRelationshipId:3519318133844723686
+Input_dependentCountryCd:1613726817991424876
+Input_countryEffectiveDate:2021-08-19
+Input_countryExpirationDate:2021-09-30
+Input_LastUpdateUserName:Automation
+Input_intialDialingPrefixCd:001
+Input_intialDialingCd:1
+Input_landPhMaxLthNbr:9
+Input_landPhMinLthNbr:9
+Input_moblPhMaxLthNbr:9
+Input_moblPhMinLthNbr:9
+Input_countryDialingsEffectiveDate:2020-08-19
+Input_countryDialingsExpirationDate:9999-12-31
+Input_currencyNumberCd:840
+Input_currencyCd:Tes
+Input_minorUnitCd:2
+Input_moneyFormatDescription:#,###.##
+Input_currenciesEffectiveDate:2021-08-30
+Input_currenciesExpirationDate:2021-10-30
+Input_uomTypeCd:Test_UOMCD
+Input_geopoliticalUnitOfMeasuresEffectiveDate:2021-08-14
+Input_geopoliticalUnitOfMeasuresExpirationDate:2021-09-20
+Input_holidayName:TestHDName
+Input_geopoliticalHolidaysEffectiveDate:2021-09-14
+Input_geopoliticalHolidaysExpirationDate:2021-10-14
+Input_affilTypeCd:Test
+Input_geopoliticalAffiliationsEffectiveDate:2021-05-14
+Input_geopoliticalAffiliationsExpirationDate:2021-05-20
+Input_localesLanguageCd:ZZZ
+Input_localeCd:LC
+Input_localesScriptCd:Test
+Input_cldrVersionNumber:1
+Input_cldrVersionDate:2019-06-30
+Input_dateFullFormatDescription:EEEE dd MMMM y
+Input_dateLongFormatDescription:dd MMMM y
+Input_dateMediumFormatDescription:dd MMM y
+Input_dateShortFormatDescription:y-MM-dd
+Input_localesEffectiveDate:2021-09-30
+Input_localesExpirationDate:2021-10-31
+Input_translationGeopoliticalsLanguageCd:ZZZ
+Input_translationGeopoliticalsScriptCd:Test
+Input_translationName:Guam
+Input_versionNumber:1
+Input_versionDate:2020-07-30
+Input_translationGeopoliticalsEffectiveDate:2020-08-19
+Input_translationGeopoliticalsExpirationDate:9999-12-31
+Input_geopoliticalTypeName:GeoTest
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Db_UserName:Automation
+Db_countryNumberCd:7865
+Db_countryCd:PP
+Db_threeCharCountryCd:KNY
+Db_independentFlag:Y
+Db_postalFormatDescription:xxxx-xxxx
+Db_postalFlag:Y
+Db_postalLengthNumber:9
+Db_firstWorkWeekDayName:Monday
+Db_lastWorkWeekDayName:Friday
+Db_weekendFirstDayName:Saturday
+Db_internetDomainName:.us
+Db_dependentRelationshipId:3519318133844723686
+Db_dependentCountryCd:1613726817991424876
+Db_countryEffectiveDate:2021-08-19
+Db_countryExpirationDate:2021-09-30
+Db_LastUpdateUserName:Automation
+Db_intialDialingPrefixCd:001
+Db_intialDialingCd:1
+Db_landPhMaxLthNbr:9
+Db_landPhMinLthNbr:9
+Db_moblPhMaxLthNbr:9
+Db_moblPhMinLthNbr:9
+Db_countryDialingsEffectiveDate:2020-08-19
+Db_countryDialingsExpirationDate:9999-12-31
+Db_currencyNumberCd:840
+Db_currencyCd:Tes
+Db_minorUnitCd:2
+Db_moneyFormatDescription:#,###.##
+Db_currenciesEffectiveDate:2021-08-30
+Db_currenciesExpirationDate:2021-10-30
+Db_uomTypeCd:Test_UOMCD
+Db_geopoliticalUnitOfMeasuresEffectiveDate:2021-08-14
+Db_geopoliticalUnitOfMeasuresExpirationDate:2021-09-20
+Db_holidayName:TestHDName
+Db_geopoliticalHolidaysEffectiveDate:2021-09-14
+Db_geopoliticalHolidaysExpirationDate:2021-10-14
+Db_affilTypeCd:Test
+Db_geopoliticalAffiliationsEffectiveDate:2021-05-14
+Db_geopoliticalAffiliationsExpirationDate:2021-05-20
+Db_localesLanguageCd:ZZZ
+Db_localeCd:LC
+Db_localesScriptCd:Test
+Db_cldrVersionNumber:1
+Db_cldrVersionDate:2019-06-30
+Db_dateFullFormatDescription:EEEE dd MMMM y
+Db_dateLongFormatDescription:dd MMMM y
+Db_dateMediumFormatDescription:dd MMM y
+Db_dateShortFormatDescription:y-MM-dd
+Db_localesEffectiveDate:2021-09-30
+Db_localesExpirationDate:2021-10-31
+Db_translationGeopoliticalsLanguageCd:ZZZ
+Db_translationGeopoliticalsScriptCd:Test
+Db_translationName:Guam
+Db_versionNumber:1
+Db_versionDate:2020-07-30
+Db_translationGeopoliticalsEffectiveDate:2020-08-19
+Db_translationGeopoliticalsExpirationDate:9999-12-31
+Db_geopoliticalTypeName:GeoTest
+</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"Automation",
+		"version":"1.0.0",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"Country Details successfully saved with GeoplId :9128498902503569559",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"geoplId":9128498902503569559
+	}
+}</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>java.lang.NullPointerException</t>
+    <t>Audit Table Validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName:Automation
+Input_countryNumberCd:7865
+Input_countryCd:PP
+Input_threeCharCountryCd:KNY
+Input_independentFlag:Y
+Input_postalFormatDescription:xxxx-xxxx
+Input_postalFlag:Y
+Input_postalLengthNumber:9
+Input_firstWorkWeekDayName:Monday
+Input_lastWorkWeekDayName:Friday
+Input_weekendFirstDayName:Saturday
+Input_internetDomainName:.us
+Input_dependentRelationshipId:3519318133844723686
+Input_dependentCountryCd:1613726817991424876
+Input_countryEffectiveDate:2021-08-19
+Input_countryExpirationDate:2021-09-30
+Input_LastUpdateUserName:Automation
+Expected_RevisionTypeCd:0
+Input_intialDialingPrefixCd:001
+Input_intialDialingCd:1
+Input_landPhMaxLthNbr:9
+Input_landPhMinLthNbr:9
+Input_moblPhMaxLthNbr:9
+Input_moblPhMinLthNbr:9
+Input_countryDialingsEffectiveDate:2020-08-19
+Input_countryDialingsExpirationDate:9999-12-31
+Expected_countryDialingsRevisionTypeCd:0
+Input_currencyNumberCd:840
+Input_currencyCd:Tes
+Input_minorUnitCd:2
+Input_moneyFormatDescription:#,###.##
+Input_currenciesEffectiveDate:2021-08-30
+Input_currenciesExpirationDate:2021-10-30
+Expected_currenciesRevisionTypeCd:0
+Input_uomTypeCd:Test_UOMCD
+Input_geopoliticalUnitOfMeasuresEffectiveDate:2021-08-14
+Input_geopoliticalUnitOfMeasuresExpirationDate:2021-09-20
+Expected_geopoliticalUnitOfMeasuresRevisionTypeCd:0
+Input_holidayName:TestHDName
+Input_geopoliticalHolidaysEffectiveDate:2021-09-14
+Input_geopoliticalHolidaysExpirationDate:2021-10-14
+Expected_geopoliticalHolidaysRevisionTypeCd:0
+Input_affilTypeCd:Test
+Input_geopoliticalAffiliationsEffectiveDate:2021-05-14
+Input_geopoliticalAffiliationsExpirationDate:2021-05-20
+Expected_geopoliticalAffiliationsRevisionTypeCd:0
+Input_localesLanguageCd:ZZZ
+Input_localeCd:LC
+Input_localesScriptCd:Test
+Input_cldrVersionNumber:1
+Input_cldrVersionDate:2019-06-30
+Input_dateFullFormatDescription:EEEE dd MMMM y
+Input_dateLongFormatDescription:dd MMMM y
+Input_dateMediumFormatDescription:dd MMM y
+Input_dateShortFormatDescription:y-MM-dd
+Input_localesEffectiveDate:2021-09-30
+Input_localesExpirationDate:2021-10-31
+Expected_localesRevisionTypeCd:0
+Input_translationGeopoliticalsLanguageCd:ZZZ
+Input_translationGeopoliticalsScriptCd:Test
+Input_translationName:Guam
+Input_versionNumber:1
+Input_versionDate:2020-07-30
+Input_translationGeopoliticalsEffectiveDate:2020-08-19
+Input_translationGeopoliticalsExpirationDate:9999-12-31
+Expected_translationGeopoliticalsRevisionTypeCd:0
+Input_geopoliticalTypeName:GeoTest
+Expected_geopoliticalTypeRevisionTypeCd:0
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Db_UserName:Automation
+Db_countryNumberCd:7865
+Db_countryCd:PP
+Db_threeCharCountryCd:KNY
+Db_independentFlag:Y
+Db_postalFormatDescription:xxxx-xxxx
+Db_postalFlag:Y
+Db_postalLengthNumber:9
+Db_firstWorkWeekDayName:Monday
+Db_lastWorkWeekDayName:Friday
+Db_weekendFirstDayName:Saturday
+Db_internetDomainName:.us
+Db_dependentRelationshipId:3519318133844723686
+Db_dependentCountryCd:1613726817991424876
+Db_countryEffectiveDate:2021-08-19
+Db_countryExpirationDate:2021-09-30
+Db_LastUpdateUserName:Automation
+Db_RevisionTypeCd:0
+Db_intialDialingPrefixCd:001
+Db_intialDialingCd:1
+Db_landPhMaxLthNbr:9
+Db_landPhMinLthNbr:9
+Db_moblPhMaxLthNbr:9
+Db_moblPhMinLthNbr:9
+Db_countryDialingsEffectiveDate:2020-08-19
+Db_countryDialingsExpirationDate:9999-12-31
+Db_countryDialingsRevisionTypeCd:0
+Db_currencyNumberCd:840
+Db_currencyCd:Tes
+Db_minorUnitCd:2
+Db_moneyFormatDescription:#,###.##
+Db_currenciesEffectiveDate:2021-08-30
+Db_currenciesExpirationDate:2021-10-30
+Db_currenciesRevisionTypeCd:0
+Db_uomTypeCd:Test_UOMCD
+Db_geopoliticalUnitOfMeasuresEffectiveDate:2021-08-14
+Db_geopoliticalUnitOfMeasuresExpirationDate:2021-09-20
+Db_geopoliticalUnitOfMeasuresRevisionTypeCd:0
+Db_holidayName:TestHDName
+Db_geopoliticalHolidaysEffectiveDate:2021-09-14
+Db_geopoliticalHolidaysExpirationDate:2021-10-14
+Db_geopoliticalHolidaysRevisionTypeCd:0
+Db_affilTypeCd:Test
+Db_geopoliticalAffiliationsEffectiveDate:2021-05-14
+Db_geopoliticalAffiliationsExpirationDate:2021-05-20
+Db_geopoliticalAffiliationsRevisionTypeCd:0
+Db_localesLanguageCd:ZZZ
+Db_localeCd:LC
+Db_localesScriptCd:Test
+Db_cldrVersionNumber:1
+Db_cldrVersionDate:2019-06-30
+Db_dateFullFormatDescription:EEEE dd MMMM y
+Db_dateLongFormatDescription:dd MMMM y
+Db_dateMediumFormatDescription:dd MMM y
+Db_dateShortFormatDescription:y-MM-dd
+Db_localesEffectiveDate:2021-09-30
+Db_localesExpirationDate:2021-10-31
+Db_localesRevisionTypeCd:0
+Db_translationGeopoliticalsLanguageCd:ZZZ
+Db_translationGeopoliticalsScriptCd:Test
+Db_translationName:Guam
+Db_versionNumber:1
+Db_versionDate:2020-07-30
+Db_translationGeopoliticalsEffectiveDate:2020-08-19
+Db_translationGeopoliticalsExpirationDate:9999-12-31
+Db_translationGeopoliticalsRevisionTypeCd:0
+Db_geopoliticalTypeName:GeoTest
+Db_geopoliticalTypeRevisionTypeCd:0
+</t>
+  </si>
+  <si>
+    <t>Audit Table validation</t>
   </si>
 </sst>
 </file>
@@ -70,7 +473,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="24">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -87,57 +490,112 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <color indexed="10"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
     </font>
   </fonts>
   <fills count="4">
@@ -206,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFill="true" applyFont="true" applyBorder="true">
       <alignment vertical="center" horizontal="center"/>
@@ -242,6 +700,39 @@
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -256,17 +747,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="11.58720703125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.246484375" collapsed="false"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="false"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.2498046875" collapsed="false"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.382421875" collapsed="false"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="false"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.58818359375" collapsed="false"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.8267578125" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="11.5859375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.24609375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="35.15625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.24609375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.37890625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="23.4375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="10.5859375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="10.82421875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.0" customHeight="true">
@@ -318,27 +809,63 @@
         <v>14</v>
       </c>
       <c r="E2" t="s" s="6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s" s="8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s" s="9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s" s="10">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s" s="11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="L2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="13">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s" s="14">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s" s="15">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s" s="17">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s" s="18">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s" s="19">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s" s="20">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s" s="21">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s" s="22">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s" s="23">
+        <v>25</v>
+      </c>
+      <c r="L3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/TestResults/CountryPost.xlsx
+++ b/TestResults/CountryPost.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -47,10 +47,10 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>TC_01</t>
-  </si>
-  <si>
-    <t>Verify that the Country service is successfully created when valid values are passed for all attributes in JSON Request.</t>
+    <t>TC_16</t>
+  </si>
+  <si>
+    <t>Verify that the Country details are created successfully created when the intialDialingCd is passed as empty/ null in the JSON request</t>
   </si>
   <si>
     <t>Post</t>
@@ -60,44 +60,37 @@
 {
 	"meta":
 	{
-		"userName":"Automation"
+		"userName":"3766269"
 	},
 	"country":
 	{
-		"countryNumberCd":"7865",
-		"countryCd":"PP",
-		"threeCharCountryCd":"KNY",
+		"countryNumericCode":"7865",
+		"countryCode":"LL",
+		"threeCharacterCountryCode":"KNY",
 		"independentFlag":"Y",
 		"postalFormatDescription":"xxxx-xxxx",
 		"postalFlag":"Y",
-		"postalLengthNumber":"9",
+		"postalLength":"9",
 		"firstWorkWeekDayName":"Monday",
 		"lastWorkWeekDayName":"Friday",
 		"weekendFirstDayName":"Saturday",
 		"internetDomainName":".us",
 		"dependentRelationshipId":"3519318133844723686",
-		"dependentCountryCd":"1613726817991424876",
+		"dependentCountryCode":"",
+		"internationalDialingCode":"",
+		"landPhoneMaximumLength":9,
+		"landPhoneMinimumLength":9,
+		"mobilePhoneMaximumLength":9,
+		"mobilePhoneMinimumLength":9,
+		"phoneNumberFormatPattern":"99999",
 		"effectiveDate":"2021-08-19",
 		"expirationDate":"2021-09-30",
-		"countryDialings":
-		[
-			{
-				"intialDialingPrefixCd":"001",
-				"intialDialingCd":"1",
-				"landPhMaxLthNbr":"9",
-				"landPhMinLthNbr":"9",
-				"moblPhMaxLthNbr":"9",
-				"moblPhMinLthNbr":"9",
-				"effectiveDate":"2020-08-19",
-				"expirationDate":"9999-12-31"
-			}
-		],
 		"currencies":
 		[
 			{
-				"currencyNumberCd":"840",
-				"currencyCd":"Tes",
-				"minorUnitCd":"2",
+				"currencyNumericCode":"840",
+				"currencyCode":"Tes",
+				"minorUnitCode":"2",
 				"moneyFormatDescription":"#,
 				###.##",
 				"effectiveDate":"2021-08-30",
@@ -107,7 +100,7 @@
 		"geopoliticalUnitOfMeasures":
 		[
 			{
-				"uomTypeCd":"Test_UOMCD",
+				"uomTypeCode":"Test_UOMCD",
 				"effectiveDate":"2021-08-14",
 				"expirationDate":"2021-09-20"
 			}
@@ -123,37 +116,21 @@
 		"geopoliticalAffiliations":
 		[
 			{
-				"affilTypeCd":"Test",
+				"affiliationTypeCode":"Test",
 				"effectiveDate":"2021-05-14",
 				"expirationDate":"2021-05-20"
 			}
 		],
-		"locales":
-		[
-			{
-				"languageCd":"ZZZ",
-				"localeCd":"LC",
-				"scrptCd":"Test",
-				"cldrVersionNumber":"1",
-				"cldrVersionDate":"2019-06-30",
-				"dateFullFormatDescription":"EEEE dd MMMM y",
-				"dateLongFormatDescription":"dd MMMM y",
-				"dateMediumFormatDescription":"dd MMM y",
-				"dateShortFormatDescription":"y-MM-dd",
-				"effectiveDate":"2021-09-30",
-				"expirationDate":"2021-10-31"
-			}
-		],
 		"translationGeopoliticals":
 		[
 			{
-				"languageCd":"ZZZ",
-				"scrptCd":"Test",
-				"translationName":"Guam",
+				"languageCode":"ZZZ",
+				"scriptCode":"Ram",
+				"translatedName":"Guam",
 				"versionNumber":"1",
 				"versionDate":"2020-07-30",
 				"effectiveDate":"2020-08-19",
-				"expirationDate":"9999-12-31"
+				"expirationDate":"2022-08-10"
 			}
 		],
 		"geopoliticalType":
@@ -164,9 +141,9 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Input_UserName:Automation
+    <t xml:space="preserve">Input_UserName:3766269
 Input_countryNumberCd:7865
-Input_countryCd:PP
+Input_countryCd:LL
 Input_threeCharCountryCd:KNY
 Input_independentFlag:Y
 Input_postalFormatDescription:xxxx-xxxx
@@ -177,18 +154,16 @@
 Input_weekendFirstDayName:Saturday
 Input_internetDomainName:.us
 Input_dependentRelationshipId:3519318133844723686
-Input_dependentCountryCd:1613726817991424876
-Input_countryEffectiveDate:2021-08-19
-Input_countryExpirationDate:2021-09-30
-Input_LastUpdateUserName:Automation
-Input_intialDialingPrefixCd:001
-Input_intialDialingCd:1
+Input_dependentCountryCd:
+Input_intialDialingCd:
 Input_landPhMaxLthNbr:9
 Input_landPhMinLthNbr:9
 Input_moblPhMaxLthNbr:9
 Input_moblPhMinLthNbr:9
-Input_countryDialingsEffectiveDate:2020-08-19
-Input_countryDialingsExpirationDate:9999-12-31
+Input_phoneNumberFormatPattern:99999
+Input_countryEffectiveDate:2021-08-19
+Input_countryExpirationDate:2021-09-30
+Input_LastUpdateUserName:3766269
 Input_currencyNumberCd:840
 Input_currencyCd:Tes
 Input_minorUnitCd:2
@@ -204,31 +179,20 @@
 Input_affilTypeCd:Test
 Input_geopoliticalAffiliationsEffectiveDate:2021-05-14
 Input_geopoliticalAffiliationsExpirationDate:2021-05-20
-Input_localesLanguageCd:ZZZ
-Input_localeCd:LC
-Input_localesScriptCd:Test
-Input_cldrVersionNumber:1
-Input_cldrVersionDate:2019-06-30
-Input_dateFullFormatDescription:EEEE dd MMMM y
-Input_dateLongFormatDescription:dd MMMM y
-Input_dateMediumFormatDescription:dd MMM y
-Input_dateShortFormatDescription:y-MM-dd
-Input_localesEffectiveDate:2021-09-30
-Input_localesExpirationDate:2021-10-31
 Input_translationGeopoliticalsLanguageCd:ZZZ
-Input_translationGeopoliticalsScriptCd:Test
+Input_translationGeopoliticalsScriptCd:Ram
 Input_translationName:Guam
 Input_versionNumber:1
 Input_versionDate:2020-07-30
 Input_translationGeopoliticalsEffectiveDate:2020-08-19
-Input_translationGeopoliticalsExpirationDate:9999-12-31
+Input_translationGeopoliticalsExpirationDate:2022-08-10
 Input_geopoliticalTypeName:GeoTest
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Db_UserName:Automation
+    <t xml:space="preserve">Db_UserName:3766269
 Db_countryNumberCd:7865
-Db_countryCd:PP
+Db_countryCd:LL
 Db_threeCharCountryCd:KNY
 Db_independentFlag:Y
 Db_postalFormatDescription:xxxx-xxxx
@@ -239,52 +203,39 @@
 Db_weekendFirstDayName:Saturday
 Db_internetDomainName:.us
 Db_dependentRelationshipId:3519318133844723686
-Db_dependentCountryCd:1613726817991424876
-Db_countryEffectiveDate:2021-08-19
-Db_countryExpirationDate:2021-09-30
-Db_LastUpdateUserName:Automation
-Db_intialDialingPrefixCd:001
-Db_intialDialingCd:1
+Db_dependentCountryCd:
+Db_intialDialingCd:
 Db_landPhMaxLthNbr:9
 Db_landPhMinLthNbr:9
 Db_moblPhMaxLthNbr:9
 Db_moblPhMinLthNbr:9
-Db_countryDialingsEffectiveDate:2020-08-19
-Db_countryDialingsExpirationDate:9999-12-31
-Db_currencyNumberCd:840
-Db_currencyCd:Tes
-Db_minorUnitCd:2
-Db_moneyFormatDescription:#,###.##
-Db_currenciesEffectiveDate:2021-08-30
-Db_currenciesExpirationDate:2021-10-30
-Db_uomTypeCd:Test_UOMCD
-Db_geopoliticalUnitOfMeasuresEffectiveDate:2021-08-14
-Db_geopoliticalUnitOfMeasuresExpirationDate:2021-09-20
-Db_holidayName:TestHDName
-Db_geopoliticalHolidaysEffectiveDate:2021-09-14
-Db_geopoliticalHolidaysExpirationDate:2021-10-14
-Db_affilTypeCd:Test
-Db_geopoliticalAffiliationsEffectiveDate:2021-05-14
-Db_geopoliticalAffiliationsExpirationDate:2021-05-20
-Db_localesLanguageCd:ZZZ
-Db_localeCd:LC
-Db_localesScriptCd:Test
-Db_cldrVersionNumber:1
-Db_cldrVersionDate:2019-06-30
-Db_dateFullFormatDescription:EEEE dd MMMM y
-Db_dateLongFormatDescription:dd MMMM y
-Db_dateMediumFormatDescription:dd MMM y
-Db_dateShortFormatDescription:y-MM-dd
-Db_localesEffectiveDate:2021-09-30
-Db_localesExpirationDate:2021-10-31
-Db_translationGeopoliticalsLanguageCd:ZZZ
-Db_translationGeopoliticalsScriptCd:Test
-Db_translationName:Guam
-Db_versionNumber:1
-Db_versionDate:2020-07-30
-Db_translationGeopoliticalsEffectiveDate:2020-08-19
-Db_translationGeopoliticalsExpirationDate:9999-12-31
-Db_geopoliticalTypeName:GeoTest
+Db_phoneNumberFormatPattern:99999
+Db_countryEffectiveDate:2021-08-19
+Db_countryExpirationDate:2021-09-30
+Db_currencyNumberCd:3766269
+Db_currencyCd:840
+Db_minorUnitCd:Tes
+Db_moneyFormatDescription:2
+Db_currenciesEffectiveDate:#,###.##
+Db_currenciesExpirationDate:2021-08-30
+Db_uomTypeCd:2021-10-30
+Db_geopoliticalUnitOfMeasuresEffectiveDate:Test_UOMCD
+Db_geopoliticalUnitOfMeasuresExpirationDate:2021-08-14
+Db_holidayName:2021-09-20
+Db_geopoliticalHolidaysEffectiveDate:TestHDName
+Db_geopoliticalHolidaysExpirationDate:2021-09-14
+Db_affilTypeCd:2021-10-14
+Db_geopoliticalAffiliationsEffectiveDate:Test
+Db_geopoliticalAffiliationsExpirationDate:2021-05-14
+Db_translationGeopoliticalsLanguageCd:2021-05-20
+Db_translationGeopoliticalsScriptCd:ZZZ
+Db_translationName:Ram
+Db_versionNumber:Guam
+Db_versionDate:1
+Db_translationGeopoliticalsEffectiveDate:2020-07-30
+Db_translationGeopoliticalsExpirationDate:2020-08-19
+Db_geopoliticalTypeName:2022-08-10
+GeoTest
 </t>
   </si>
   <si>
@@ -298,18 +249,21 @@
 {
 	"meta":
 	{
-		"userName":"Automation",
+		"userName":"3766269",
 		"version":"1.0.0",
+		"transactionId":"d72cafca-1063-46cd-ad9d-71b07f8715ac",
+		"timeStamp":"2020-06-29 09:06:13",
+		"statusCode":"200",
 		"message":
 		{
 			"status":"SUCCESS",
-			"internalMessage":"Country Details successfully saved with GeoplId :9128498902503569559",
+			"internalMessage":"Country Details successfully saved with geopoliticalId :8846350235839058347",
 			"data":null
 		}
 	},
 	"data":
 	{
-		"geoplId":9128498902503569559
+		"geopoliticalId":"8846350235839058347"
 	}
 }</t>
   </si>
@@ -320,12 +274,99 @@
     <t/>
   </si>
   <si>
-    <t>Audit Table Validation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input_UserName:Automation
+    <t>TC_68</t>
+  </si>
+  <si>
+    <t>Verify that the Country details are created successfully created when the intialDialingCd attribute is not passed in the JSON request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3766269"
+	},
+	"country":
+	{
+		"countryNumericCode":"7865",
+		"countryCode":"LM",
+		"threeCharacterCountryCode":"KNY",
+		"independentFlag":"Y",
+		"postalFormatDescription":"xxxx-xxxx",
+		"postalFlag":"Y",
+		"postalLength":"9",
+		"firstWorkWeekDayName":"Monday",
+		"lastWorkWeekDayName":"Friday",
+		"weekendFirstDayName":"Saturday",
+		"internetDomainName":".us",
+		"dependentRelationshipId":"3519318133844723686",
+		"dependentCountryCode":"",
+		"landPhoneMaximumLength":9,
+		"landPhoneMinimumLength":9,
+		"mobilePhoneMaximumLength":9,
+		"mobilePhoneMinimumLength":9,
+		"phoneNumberFormatPattern":"99999",
+		"effectiveDate":"2021-08-19",
+		"expirationDate":"2021-09-30",
+		"currencies":
+		[
+			{
+				"currencyNumericCode":"840",
+				"currencyCode":"Tes",
+				"minorUnitCode":"2",
+				"moneyFormatDescription":"#,
+				###.##",
+				"effectiveDate":"2021-08-30",
+				"expirationDate":"2021-10-30"
+			}
+		],
+		"geopoliticalUnitOfMeasures":
+		[
+			{
+				"uomTypeCode":"Test_UOMCD",
+				"effectiveDate":"2021-08-14",
+				"expirationDate":"2021-09-20"
+			}
+		],
+		"geopoliticalHolidays":
+		[
+			{
+				"holidayName":"TestHDName",
+				"effectiveDate":"2021-09-14",
+				"expirationDate":"2021-10-14"
+			}
+		],
+		"geopoliticalAffiliations":
+		[
+			{
+				"affiliationTypeCode":"Test",
+				"effectiveDate":"2021-05-14",
+				"expirationDate":"2021-05-20"
+			}
+		],
+		"translationGeopoliticals":
+		[
+			{
+				"languageCode":"ZZZ",
+				"scriptCode":"Ram",
+				"translatedName":"Guam",
+				"versionNumber":"1",
+				"versionDate":"2020-07-30",
+				"effectiveDate":"2020-08-19",
+				"expirationDate":"2022-08-10"
+			}
+		],
+		"geopoliticalType":
+		{
+			"geopoliticalTypeName":"GeoTest"
+		}
+	}
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Input_UserName:3766269
 Input_countryNumberCd:7865
-Input_countryCd:PP
+Input_countryCd:LM
 Input_threeCharCountryCd:KNY
 Input_independentFlag:Y
 Input_postalFormatDescription:xxxx-xxxx
@@ -336,67 +377,45 @@
 Input_weekendFirstDayName:Saturday
 Input_internetDomainName:.us
 Input_dependentRelationshipId:3519318133844723686
-Input_dependentCountryCd:1613726817991424876
-Input_countryEffectiveDate:2021-08-19
-Input_countryExpirationDate:2021-09-30
-Input_LastUpdateUserName:Automation
-Expected_RevisionTypeCd:0
-Input_intialDialingPrefixCd:001
-Input_intialDialingCd:1
+Input_dependentCountryCd:
+Input_intialDialingCd:
 Input_landPhMaxLthNbr:9
 Input_landPhMinLthNbr:9
 Input_moblPhMaxLthNbr:9
 Input_moblPhMinLthNbr:9
-Input_countryDialingsEffectiveDate:2020-08-19
-Input_countryDialingsExpirationDate:9999-12-31
-Expected_countryDialingsRevisionTypeCd:0
+Input_phoneNumberFormatPattern:99999
+Input_countryEffectiveDate:2021-08-19
+Input_countryExpirationDate:2021-09-30
+Input_LastUpdateUserName:3766269
 Input_currencyNumberCd:840
 Input_currencyCd:Tes
 Input_minorUnitCd:2
 Input_moneyFormatDescription:#,###.##
 Input_currenciesEffectiveDate:2021-08-30
 Input_currenciesExpirationDate:2021-10-30
-Expected_currenciesRevisionTypeCd:0
 Input_uomTypeCd:Test_UOMCD
 Input_geopoliticalUnitOfMeasuresEffectiveDate:2021-08-14
 Input_geopoliticalUnitOfMeasuresExpirationDate:2021-09-20
-Expected_geopoliticalUnitOfMeasuresRevisionTypeCd:0
 Input_holidayName:TestHDName
 Input_geopoliticalHolidaysEffectiveDate:2021-09-14
 Input_geopoliticalHolidaysExpirationDate:2021-10-14
-Expected_geopoliticalHolidaysRevisionTypeCd:0
 Input_affilTypeCd:Test
 Input_geopoliticalAffiliationsEffectiveDate:2021-05-14
 Input_geopoliticalAffiliationsExpirationDate:2021-05-20
-Expected_geopoliticalAffiliationsRevisionTypeCd:0
-Input_localesLanguageCd:ZZZ
-Input_localeCd:LC
-Input_localesScriptCd:Test
-Input_cldrVersionNumber:1
-Input_cldrVersionDate:2019-06-30
-Input_dateFullFormatDescription:EEEE dd MMMM y
-Input_dateLongFormatDescription:dd MMMM y
-Input_dateMediumFormatDescription:dd MMM y
-Input_dateShortFormatDescription:y-MM-dd
-Input_localesEffectiveDate:2021-09-30
-Input_localesExpirationDate:2021-10-31
-Expected_localesRevisionTypeCd:0
 Input_translationGeopoliticalsLanguageCd:ZZZ
-Input_translationGeopoliticalsScriptCd:Test
+Input_translationGeopoliticalsScriptCd:Ram
 Input_translationName:Guam
 Input_versionNumber:1
 Input_versionDate:2020-07-30
 Input_translationGeopoliticalsEffectiveDate:2020-08-19
-Input_translationGeopoliticalsExpirationDate:9999-12-31
-Expected_translationGeopoliticalsRevisionTypeCd:0
+Input_translationGeopoliticalsExpirationDate:2022-08-10
 Input_geopoliticalTypeName:GeoTest
-Expected_geopoliticalTypeRevisionTypeCd:0
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Db_UserName:Automation
+    <t xml:space="preserve">Db_UserName:3766269
 Db_countryNumberCd:7865
-Db_countryCd:PP
+Db_countryCd:LM
 Db_threeCharCountryCd:KNY
 Db_independentFlag:Y
 Db_postalFormatDescription:xxxx-xxxx
@@ -407,65 +426,63 @@
 Db_weekendFirstDayName:Saturday
 Db_internetDomainName:.us
 Db_dependentRelationshipId:3519318133844723686
-Db_dependentCountryCd:1613726817991424876
-Db_countryEffectiveDate:2021-08-19
-Db_countryExpirationDate:2021-09-30
-Db_LastUpdateUserName:Automation
-Db_RevisionTypeCd:0
-Db_intialDialingPrefixCd:001
-Db_intialDialingCd:1
+Db_dependentCountryCd:
+Db_intialDialingCd:
 Db_landPhMaxLthNbr:9
 Db_landPhMinLthNbr:9
 Db_moblPhMaxLthNbr:9
 Db_moblPhMinLthNbr:9
-Db_countryDialingsEffectiveDate:2020-08-19
-Db_countryDialingsExpirationDate:9999-12-31
-Db_countryDialingsRevisionTypeCd:0
-Db_currencyNumberCd:840
-Db_currencyCd:Tes
-Db_minorUnitCd:2
-Db_moneyFormatDescription:#,###.##
-Db_currenciesEffectiveDate:2021-08-30
-Db_currenciesExpirationDate:2021-10-30
-Db_currenciesRevisionTypeCd:0
-Db_uomTypeCd:Test_UOMCD
-Db_geopoliticalUnitOfMeasuresEffectiveDate:2021-08-14
-Db_geopoliticalUnitOfMeasuresExpirationDate:2021-09-20
-Db_geopoliticalUnitOfMeasuresRevisionTypeCd:0
-Db_holidayName:TestHDName
-Db_geopoliticalHolidaysEffectiveDate:2021-09-14
-Db_geopoliticalHolidaysExpirationDate:2021-10-14
-Db_geopoliticalHolidaysRevisionTypeCd:0
-Db_affilTypeCd:Test
-Db_geopoliticalAffiliationsEffectiveDate:2021-05-14
-Db_geopoliticalAffiliationsExpirationDate:2021-05-20
-Db_geopoliticalAffiliationsRevisionTypeCd:0
-Db_localesLanguageCd:ZZZ
-Db_localeCd:LC
-Db_localesScriptCd:Test
-Db_cldrVersionNumber:1
-Db_cldrVersionDate:2019-06-30
-Db_dateFullFormatDescription:EEEE dd MMMM y
-Db_dateLongFormatDescription:dd MMMM y
-Db_dateMediumFormatDescription:dd MMM y
-Db_dateShortFormatDescription:y-MM-dd
-Db_localesEffectiveDate:2021-09-30
-Db_localesExpirationDate:2021-10-31
-Db_localesRevisionTypeCd:0
-Db_translationGeopoliticalsLanguageCd:ZZZ
-Db_translationGeopoliticalsScriptCd:Test
-Db_translationName:Guam
-Db_versionNumber:1
-Db_versionDate:2020-07-30
-Db_translationGeopoliticalsEffectiveDate:2020-08-19
-Db_translationGeopoliticalsExpirationDate:9999-12-31
-Db_translationGeopoliticalsRevisionTypeCd:0
-Db_geopoliticalTypeName:GeoTest
-Db_geopoliticalTypeRevisionTypeCd:0
+Db_phoneNumberFormatPattern:99999
+Db_countryEffectiveDate:2021-08-19
+Db_countryExpirationDate:2021-09-30
+Db_currencyNumberCd:3766269
+Db_currencyCd:840
+Db_minorUnitCd:Tes
+Db_moneyFormatDescription:2
+Db_currenciesEffectiveDate:#,###.##
+Db_currenciesExpirationDate:2021-08-30
+Db_uomTypeCd:2021-10-30
+Db_geopoliticalUnitOfMeasuresEffectiveDate:Test_UOMCD
+Db_geopoliticalUnitOfMeasuresExpirationDate:2021-08-14
+Db_holidayName:2021-09-20
+Db_geopoliticalHolidaysEffectiveDate:TestHDName
+Db_geopoliticalHolidaysExpirationDate:2021-09-14
+Db_affilTypeCd:2021-10-14
+Db_geopoliticalAffiliationsEffectiveDate:Test
+Db_geopoliticalAffiliationsExpirationDate:2021-05-14
+Db_translationGeopoliticalsLanguageCd:2021-05-20
+Db_translationGeopoliticalsScriptCd:ZZZ
+Db_translationName:Ram
+Db_versionNumber:Guam
+Db_versionDate:1
+Db_translationGeopoliticalsEffectiveDate:2020-07-30
+Db_translationGeopoliticalsExpirationDate:2020-08-19
+Db_geopoliticalTypeName:2022-08-10
+GeoTest
 </t>
   </si>
   <si>
-    <t>Audit Table validation</t>
+    <t xml:space="preserve">
+{
+	"meta":
+	{
+		"userName":"3766269",
+		"version":"1.0.0",
+		"transactionId":"769bf481-9e4a-4297-9334-d7665846a6ad",
+		"timeStamp":"2020-06-29 09:06:49",
+		"statusCode":"200",
+		"message":
+		{
+			"status":"SUCCESS",
+			"internalMessage":"Country Details successfully saved with geopoliticalId :135537735853883146",
+			"data":null
+		}
+	},
+	"data":
+	{
+		"geopoliticalId":"135537735853883146"
+	}
+}</t>
   </si>
 </sst>
 </file>
@@ -833,37 +850,37 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="13">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s" s="14">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s" s="15">
         <v>13</v>
       </c>
       <c r="D3" t="s" s="16">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s" s="17">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s" s="18">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s" s="19">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s" s="20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s" s="21">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s" s="22">
         <v>20</v>
       </c>
       <c r="K3" t="s" s="23">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L3"/>
     </row>
